--- a/Excel/excel/PokerConfig.xlsx
+++ b/Excel/excel/PokerConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25905" windowHeight="12975"/>
+    <workbookView windowWidth="27705" windowHeight="12975"/>
   </bookViews>
   <sheets>
     <sheet name="PokerConfig" sheetId="3" r:id="rId1"/>
@@ -12,7 +12,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PokerConfig!$A$4:$B$9</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -226,7 +239,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1501,11 +1514,11 @@
   <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="D58" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G72" sqref="G72"/>
+      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1513,7 +1526,7 @@
     <col min="1" max="1" width="12.075" style="7" customWidth="1"/>
     <col min="2" max="2" width="26.25" style="7" customWidth="1"/>
     <col min="3" max="3" width="12.075" style="7" customWidth="1"/>
-    <col min="4" max="4" width="23.875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="17.8416666666667" style="8" customWidth="1"/>
     <col min="5" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>

--- a/Excel/excel/PokerConfig.xlsx
+++ b/Excel/excel/PokerConfig.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="69">
   <si>
     <t>id</t>
   </si>
@@ -38,13 +38,16 @@
     <t>urlIcon</t>
   </si>
   <si>
+    <t>cardValue</t>
+  </si>
+  <si>
     <t>#desc</t>
   </si>
   <si>
+    <t>int</t>
+  </si>
+  <si>
     <t>string</t>
-  </si>
-  <si>
-    <t>int</t>
   </si>
   <si>
     <t>key值</t>
@@ -1001,7 +1004,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1063,9 +1066,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1075,18 +1075,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1100,9 +1094,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1513,12 +1504,12 @@
   <sheetPr/>
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomRight" activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1538,38 +1529,38 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:4">
@@ -1577,7 +1568,7 @@
         <v>1031</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="10">
         <v>3</v>
@@ -1591,7 +1582,7 @@
         <v>1032</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="10">
         <v>3</v>
@@ -1605,7 +1596,7 @@
         <v>1033</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="10">
         <v>3</v>
@@ -1619,7 +1610,7 @@
         <v>1034</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="10">
         <v>3</v>
@@ -1633,7 +1624,7 @@
         <v>1041</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" s="13">
         <v>4</v>
@@ -1647,7 +1638,7 @@
         <v>1042</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" s="13">
         <v>4</v>
@@ -1661,7 +1652,7 @@
         <v>1043</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10" s="14">
         <v>4</v>
@@ -1675,7 +1666,7 @@
         <v>1044</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" s="14">
         <v>4</v>
@@ -1689,7 +1680,7 @@
         <v>1051</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12" s="16">
         <v>5</v>
@@ -1703,7 +1694,7 @@
         <v>1052</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" s="16">
         <v>5</v>
@@ -1717,7 +1708,7 @@
         <v>1053</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="16">
         <v>5</v>
@@ -1731,7 +1722,7 @@
         <v>1054</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C15" s="16">
         <v>5</v>
@@ -1745,9 +1736,9 @@
         <v>1061</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="12">
+        <v>22</v>
+      </c>
+      <c r="C16" s="13">
         <v>6</v>
       </c>
       <c r="D16" s="12">
@@ -1759,9 +1750,9 @@
         <v>1062</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="12">
+        <v>23</v>
+      </c>
+      <c r="C17" s="13">
         <v>6</v>
       </c>
       <c r="D17" s="12">
@@ -1773,9 +1764,9 @@
         <v>1063</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="18">
+        <v>24</v>
+      </c>
+      <c r="C18" s="14">
         <v>6</v>
       </c>
       <c r="D18" s="18">
@@ -1787,9 +1778,9 @@
         <v>1064</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="18">
+        <v>25</v>
+      </c>
+      <c r="C19" s="14">
         <v>6</v>
       </c>
       <c r="D19" s="18">
@@ -1801,7 +1792,7 @@
         <v>1071</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" s="16">
         <v>7</v>
@@ -1815,7 +1806,7 @@
         <v>1072</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C21" s="16">
         <v>7</v>
@@ -1829,7 +1820,7 @@
         <v>1073</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C22" s="16">
         <v>7</v>
@@ -1843,7 +1834,7 @@
         <v>1074</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C23" s="16">
         <v>7</v>
@@ -1857,7 +1848,7 @@
         <v>1081</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C24" s="15">
         <v>8</v>
@@ -1871,7 +1862,7 @@
         <v>1082</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C25" s="15">
         <v>8</v>
@@ -1885,7 +1876,7 @@
         <v>1083</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C26" s="15">
         <v>8</v>
@@ -1899,7 +1890,7 @@
         <v>1084</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C27" s="15">
         <v>8</v>
@@ -1913,7 +1904,7 @@
         <v>1091</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C28" s="16">
         <v>9</v>
@@ -1927,7 +1918,7 @@
         <v>1092</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29" s="16">
         <v>9</v>
@@ -1941,7 +1932,7 @@
         <v>1093</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C30" s="16">
         <v>9</v>
@@ -1955,7 +1946,7 @@
         <v>1094</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C31" s="16">
         <v>9</v>
@@ -1969,7 +1960,7 @@
         <v>1101</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C32" s="15">
         <v>10</v>
@@ -1983,7 +1974,7 @@
         <v>1102</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C33" s="15">
         <v>10</v>
@@ -1997,7 +1988,7 @@
         <v>1103</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C34" s="15">
         <v>10</v>
@@ -2011,7 +2002,7 @@
         <v>1104</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C35" s="15">
         <v>10</v>
@@ -2025,13 +2016,13 @@
         <v>1111</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C36" s="14">
+        <v>42</v>
+      </c>
+      <c r="C36" s="15">
         <v>11</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2039,13 +2030,13 @@
         <v>1112</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C37" s="14">
+        <v>42</v>
+      </c>
+      <c r="C37" s="15">
         <v>11</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2053,13 +2044,13 @@
         <v>1113</v>
       </c>
       <c r="B38" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" s="15">
+        <v>11</v>
+      </c>
+      <c r="D38" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="C38" s="14">
-        <v>11</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2067,13 +2058,13 @@
         <v>1114</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C39" s="14">
+        <v>45</v>
+      </c>
+      <c r="C39" s="15">
         <v>11</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" s="3" customFormat="1" spans="1:4">
@@ -2081,13 +2072,13 @@
         <v>1121</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C40" s="21">
+        <v>46</v>
+      </c>
+      <c r="C40" s="19">
         <v>12</v>
       </c>
-      <c r="D40" s="22" t="s">
-        <v>46</v>
+      <c r="D40" s="21" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2095,13 +2086,13 @@
         <v>1122</v>
       </c>
       <c r="B41" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="15">
+        <v>12</v>
+      </c>
+      <c r="D41" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="C41" s="14">
-        <v>12</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2109,13 +2100,13 @@
         <v>1123</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C42" s="14">
+        <v>49</v>
+      </c>
+      <c r="C42" s="15">
         <v>12</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2123,138 +2114,138 @@
         <v>1124</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C43" s="14">
+        <v>50</v>
+      </c>
+      <c r="C43" s="15">
         <v>12</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" s="4" customFormat="1" spans="1:4">
-      <c r="A44" s="23">
+      <c r="A44" s="22">
         <v>1131</v>
       </c>
-      <c r="B44" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="C44" s="25">
+      <c r="B44" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" s="22">
         <v>13</v>
       </c>
-      <c r="D44" s="26" t="s">
-        <v>51</v>
+      <c r="D44" s="24" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="18">
         <v>1132</v>
       </c>
-      <c r="B45" s="27" t="s">
+      <c r="B45" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" s="18">
+        <v>13</v>
+      </c>
+      <c r="D45" s="26" t="s">
         <v>52</v>
-      </c>
-      <c r="C45" s="28">
-        <v>13</v>
-      </c>
-      <c r="D45" s="29" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="18">
         <v>1133</v>
       </c>
-      <c r="B46" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C46" s="28">
+      <c r="B46" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" s="18">
         <v>13</v>
       </c>
-      <c r="D46" s="29" t="s">
-        <v>51</v>
+      <c r="D46" s="26" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="47" s="5" customFormat="1" spans="1:4">
       <c r="A47" s="18">
         <v>1134</v>
       </c>
-      <c r="B47" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="C47" s="28">
+      <c r="B47" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" s="18">
         <v>13</v>
       </c>
-      <c r="D47" s="29" t="s">
-        <v>51</v>
+      <c r="D47" s="26" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="48" s="6" customFormat="1" spans="1:4">
-      <c r="A48" s="30">
+      <c r="A48" s="27">
         <v>1141</v>
       </c>
-      <c r="B48" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="C48" s="30">
+      <c r="B48" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" s="27">
         <v>14</v>
       </c>
-      <c r="D48" s="29" t="s">
-        <v>56</v>
+      <c r="D48" s="26" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="18">
         <v>1142</v>
       </c>
-      <c r="B49" s="27" t="s">
+      <c r="B49" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" s="18">
+        <v>14</v>
+      </c>
+      <c r="D49" s="26" t="s">
         <v>57</v>
-      </c>
-      <c r="C49" s="28">
-        <v>13.6783216783217</v>
-      </c>
-      <c r="D49" s="29" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="18">
         <v>1143</v>
       </c>
-      <c r="B50" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="C50" s="28">
-        <v>13.9020979020979</v>
-      </c>
-      <c r="D50" s="29" t="s">
-        <v>56</v>
+      <c r="B50" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" s="18">
+        <v>14</v>
+      </c>
+      <c r="D50" s="26" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="18">
         <v>1144</v>
       </c>
-      <c r="B51" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="C51" s="28">
-        <v>14.1258741258741</v>
-      </c>
-      <c r="D51" s="29" t="s">
-        <v>56</v>
+      <c r="B51" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" s="18">
+        <v>14</v>
+      </c>
+      <c r="D51" s="26" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="52" s="5" customFormat="1" spans="1:4">
-      <c r="A52" s="32">
+      <c r="A52" s="29">
         <v>1151</v>
       </c>
-      <c r="B52" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="C52" s="34">
+      <c r="B52" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" s="29">
         <v>15</v>
       </c>
-      <c r="D52" s="35">
+      <c r="D52" s="31">
         <v>2</v>
       </c>
     </row>
@@ -2262,13 +2253,13 @@
       <c r="A53" s="18">
         <v>1152</v>
       </c>
-      <c r="B53" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C53" s="28">
-        <v>14.5734265734266</v>
-      </c>
-      <c r="D53" s="29">
+      <c r="B53" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C53" s="18">
+        <v>15</v>
+      </c>
+      <c r="D53" s="26">
         <v>2</v>
       </c>
     </row>
@@ -2276,13 +2267,13 @@
       <c r="A54" s="18">
         <v>1153</v>
       </c>
-      <c r="B54" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="C54" s="28">
-        <v>14.7972027972028</v>
-      </c>
-      <c r="D54" s="29">
+      <c r="B54" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C54" s="18">
+        <v>15</v>
+      </c>
+      <c r="D54" s="26">
         <v>2</v>
       </c>
     </row>
@@ -2290,13 +2281,13 @@
       <c r="A55" s="18">
         <v>1154</v>
       </c>
-      <c r="B55" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="C55" s="28">
-        <v>15.020979020979</v>
-      </c>
-      <c r="D55" s="29">
+      <c r="B55" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C55" s="18">
+        <v>15</v>
+      </c>
+      <c r="D55" s="26">
         <v>2</v>
       </c>
     </row>
@@ -2305,13 +2296,13 @@
         <v>2001</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C56" s="14">
-        <v>15.2447552447552</v>
+        <v>20</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2319,51 +2310,51 @@
         <v>3001</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C57" s="14">
-        <v>15.4685314685315</v>
+        <v>30</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:A9">
-    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:A17">
-    <cfRule type="duplicateValues" dxfId="1" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C9">
+    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16:C17">
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:D9">
     <cfRule type="duplicateValues" dxfId="1" priority="16"/>
     <cfRule type="duplicateValues" dxfId="2" priority="15"/>
     <cfRule type="duplicateValues" dxfId="1" priority="14"/>
     <cfRule type="duplicateValues" dxfId="0" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C16:C17">
+  <conditionalFormatting sqref="D16:D17">
     <cfRule type="duplicateValues" dxfId="1" priority="12"/>
     <cfRule type="duplicateValues" dxfId="2" priority="11"/>
     <cfRule type="duplicateValues" dxfId="1" priority="10"/>
     <cfRule type="duplicateValues" dxfId="0" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4:D9">
-    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16:D17">
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
